--- a/04_요구사항 분석/요건정의서_수정요v2.xlsx
+++ b/04_요구사항 분석/요건정의서_수정요v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="205">
   <si>
     <t>게스트프로파일(개인정보): REF</t>
   </si>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지 글 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지 사항에 대한 글 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">상품 삭제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,30 +365,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객인 업로드한 리뷰에 대한 댓글 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객인 업로드한 리뷰 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악성 리뷰 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매출관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급을 통하여 회원을 관리한다(0: 관리자, 1. VIP고객, 2: 일반고객, 4: 블랙리스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내 정보 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,19 +742,73 @@
     <t xml:space="preserve">아마존 웹서비스 : 이게 트렌디 개발도구 활용을 했다. </t>
   </si>
   <si>
-    <t>상품과 어울리는 배경을 추천</t>
-  </si>
-  <si>
-    <t>상품상세관리</t>
-  </si>
-  <si>
-    <t>구독기간 설정</t>
-  </si>
-  <si>
-    <t>1/3/6/9/12 개월 // 자동연장</t>
-  </si>
-  <si>
     <t>자동 결제</t>
+  </si>
+  <si>
+    <t>상품 삭제</t>
+  </si>
+  <si>
+    <t>커스터마이징</t>
+  </si>
+  <si>
+    <t>상세 페이지</t>
+  </si>
+  <si>
+    <t>후기관리</t>
+  </si>
+  <si>
+    <t>후기조회</t>
+  </si>
+  <si>
+    <t>후기댓글</t>
+  </si>
+  <si>
+    <t>후기삭제</t>
+  </si>
+  <si>
+    <t>악성 후기 삭제</t>
+  </si>
+  <si>
+    <t>고객인 업로드한 후기에 대한 댓글 작성</t>
+  </si>
+  <si>
+    <t>고객인 업로드한 후기 조회</t>
+  </si>
+  <si>
+    <t>등급을 통하여 회원을 관리한다. - 장기사용자일수록 등급상승</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>스프링 시큐리티</t>
+  </si>
+  <si>
+    <t>리액트</t>
+  </si>
+  <si>
+    <t>공지 글 조회</t>
+  </si>
+  <si>
+    <t>아임포트</t>
+  </si>
+  <si>
+    <t>결제모듈</t>
+  </si>
+  <si>
+    <t>고려대상</t>
+  </si>
+  <si>
+    <t>후기등록</t>
+  </si>
+  <si>
+    <t>후기수정</t>
+  </si>
+  <si>
+    <t>웹/앱 연동</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,7 +1719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1878,13 +1904,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J129"/>
+  <dimension ref="B2:J128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1893,9 +1919,9 @@
     <col min="2" max="2" width="8" style="44" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="25" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="16" style="44" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5703125" style="44" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
@@ -1923,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>41</v>
@@ -1932,7 +1958,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="47" customFormat="1">
@@ -1946,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>44</v>
@@ -1962,10 +1988,10 @@
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>47</v>
@@ -1974,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="47" customFormat="1">
@@ -1984,7 +2010,7 @@
       <c r="C7" s="39"/>
       <c r="D7" s="41"/>
       <c r="E7" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>48</v>
@@ -2001,10 +2027,10 @@
       <c r="C8" s="39"/>
       <c r="D8" s="41"/>
       <c r="E8" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>52</v>
@@ -2018,7 +2044,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="41"/>
       <c r="E9" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>49</v>
@@ -2030,50 +2056,50 @@
     </row>
     <row r="10" spans="2:8" s="47" customFormat="1">
       <c r="B10" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="47" customFormat="1">
       <c r="B11" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="42"/>
       <c r="E11" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="2:8" s="47" customFormat="1">
       <c r="B12" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="43"/>
       <c r="E12" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>11</v>
@@ -2085,12 +2111,12 @@
     </row>
     <row r="13" spans="2:8" s="47" customFormat="1">
       <c r="B13" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="43"/>
       <c r="E13" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>10</v>
@@ -2102,1191 +2128,1280 @@
     </row>
     <row r="14" spans="2:8" s="47" customFormat="1">
       <c r="B14" s="22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="43"/>
       <c r="E14" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="43"/>
     </row>
     <row r="15" spans="2:8" s="47" customFormat="1">
       <c r="B15" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="47" customFormat="1">
       <c r="B16" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="41"/>
       <c r="E16" s="32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" s="47" customFormat="1">
+    <row r="17" spans="2:10" s="47" customFormat="1">
       <c r="B17" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="41"/>
       <c r="E17" s="32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" s="47" customFormat="1">
+    <row r="18" spans="2:10" s="47" customFormat="1">
       <c r="B18" s="22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="41"/>
       <c r="E18" s="32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" s="47" customFormat="1">
-      <c r="B19" s="22"/>
+    <row r="19" spans="2:10" s="47" customFormat="1">
+      <c r="B19" s="22">
+        <v>15</v>
+      </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="41" t="s">
-        <v>190</v>
-      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="47" customFormat="1">
-      <c r="B20" s="22"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="2:10" s="47" customFormat="1">
+      <c r="B20" s="22">
+        <v>16</v>
+      </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="41" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="G20" s="48"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" s="47" customFormat="1">
-      <c r="B21" s="22"/>
+    <row r="21" spans="2:10" s="47" customFormat="1">
+      <c r="B21" s="22">
+        <v>17</v>
+      </c>
       <c r="C21" s="39"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="48"/>
+      <c r="D21" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>192</v>
+      </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" s="47" customFormat="1">
-      <c r="B22" s="22"/>
+    <row r="22" spans="2:10" s="47" customFormat="1">
+      <c r="B22" s="22">
+        <v>18</v>
+      </c>
       <c r="C22" s="39"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" s="47" customFormat="1">
+    <row r="23" spans="2:10" s="47" customFormat="1">
       <c r="B23" s="22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="32"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F23" s="32" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="2:8" s="47" customFormat="1">
+    <row r="24" spans="2:10" s="47" customFormat="1">
       <c r="B24" s="22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="32"/>
+      <c r="D24" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F24" s="32" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" s="47" customFormat="1">
+    <row r="25" spans="2:10" s="47" customFormat="1">
       <c r="B25" s="22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="41"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" s="47" customFormat="1">
+    <row r="26" spans="2:10" s="47" customFormat="1">
       <c r="B26" s="22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="41" t="s">
-        <v>18</v>
-      </c>
+      <c r="D26" s="41"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" s="47" customFormat="1">
+    <row r="27" spans="2:10" s="47" customFormat="1">
       <c r="B27" s="22">
+        <v>23</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="2:10" s="47" customFormat="1">
+      <c r="B28" s="22">
+        <v>24</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="2:8" s="47" customFormat="1">
-      <c r="B28" s="22">
+      <c r="G28" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:10" s="47" customFormat="1">
+      <c r="B29" s="22">
+        <v>25</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="2:8" s="47" customFormat="1">
-      <c r="B29" s="22">
-        <v>22</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49" t="s">
-        <v>19</v>
-      </c>
       <c r="G29" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="2:8" s="47" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:10" s="47" customFormat="1">
       <c r="B30" s="22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="49"/>
+      <c r="E30" s="49" t="s">
+        <v>194</v>
+      </c>
       <c r="F30" s="49" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H30" s="43"/>
     </row>
-    <row r="31" spans="2:8" s="47" customFormat="1">
+    <row r="31" spans="2:10" s="47" customFormat="1">
       <c r="B31" s="22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="43"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="49" t="s">
+        <v>194</v>
+      </c>
       <c r="F31" s="49" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H31" s="43"/>
     </row>
-    <row r="32" spans="2:8" s="47" customFormat="1">
-      <c r="B32" s="22">
-        <v>25</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" spans="2:10" s="47" customFormat="1">
-      <c r="B33" s="22">
+    <row r="32" spans="2:10" s="47" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B32" s="23">
+        <v>28</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="2:8" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="10">
+        <v>29</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="2:8" s="47" customFormat="1">
+      <c r="B34" s="22">
+        <v>30</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="43"/>
-    </row>
-    <row r="34" spans="2:10" s="47" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B34" s="23">
-        <v>28</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="J34" s="53"/>
-    </row>
-    <row r="35" spans="2:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="10">
-        <v>29</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54" t="s">
-        <v>1</v>
+      <c r="G34" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:8" s="47" customFormat="1">
+      <c r="B35" s="22">
+        <v>31</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:10" s="47" customFormat="1">
+    <row r="36" spans="2:8" s="47" customFormat="1">
       <c r="B36" s="22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="F36" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="2:10" s="47" customFormat="1">
+    <row r="37" spans="2:8" s="47" customFormat="1">
       <c r="B37" s="22">
-        <v>31</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="F37" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" s="47" customFormat="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="2:8" s="47" customFormat="1">
       <c r="B38" s="22">
-        <v>32</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="F38" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" s="47" customFormat="1">
+        <v>54</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="47" customFormat="1">
       <c r="B39" s="22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="32"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="F39" s="32" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="2:10" s="47" customFormat="1">
+    <row r="40" spans="2:8" s="47" customFormat="1">
       <c r="B40" s="22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="41" t="s">
-        <v>46</v>
-      </c>
+      <c r="D40" s="41"/>
       <c r="E40" s="32" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="47" customFormat="1">
+        <v>59</v>
+      </c>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="2:8" s="47" customFormat="1">
       <c r="B41" s="22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="F41" s="32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H41" s="41"/>
     </row>
-    <row r="42" spans="2:10" s="47" customFormat="1">
+    <row r="42" spans="2:8" s="47" customFormat="1">
       <c r="B42" s="22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="41"/>
-    </row>
-    <row r="43" spans="2:10" s="47" customFormat="1">
+      <c r="D42" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="2:8" s="47" customFormat="1">
       <c r="B43" s="22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F43" s="32" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="41"/>
-    </row>
-    <row r="44" spans="2:10" s="47" customFormat="1">
+        <v>93</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:8" s="47" customFormat="1">
       <c r="B44" s="22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="22"/>
-      <c r="D44" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="2:10" s="47" customFormat="1">
+      <c r="D44" s="18"/>
+      <c r="E44" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" s="47" customFormat="1">
       <c r="B45" s="22">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="32"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F45" s="32" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="2:10" s="47" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" s="47" customFormat="1">
       <c r="B46" s="22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="32"/>
+      <c r="E46" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F46" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="2:10" s="47" customFormat="1">
+    <row r="47" spans="2:8" s="47" customFormat="1">
       <c r="B47" s="22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="32"/>
+      <c r="E47" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F47" s="32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="2:10" s="47" customFormat="1">
+    <row r="48" spans="2:8" s="47" customFormat="1">
       <c r="B48" s="22">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="32"/>
+      <c r="E48" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F48" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" s="47" customFormat="1">
       <c r="B49" s="22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="32"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F49" s="32" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" spans="2:8" s="47" customFormat="1">
       <c r="B50" s="22">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F50" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="2:8" s="47" customFormat="1">
       <c r="B51" s="22">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="32"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="F51" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="2:8" s="47" customFormat="1">
-      <c r="B52" s="22">
-        <v>46</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="44">
+        <v>48</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="53" spans="2:8" s="47" customFormat="1">
       <c r="B53" s="22">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="32"/>
+      <c r="D53" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="F53" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="2:8" s="47" customFormat="1">
       <c r="B54" s="22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="32"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="F54" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="48"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="2:8" s="47" customFormat="1">
+      <c r="B55" s="22">
+        <v>51</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="41"/>
-    </row>
-    <row r="55" spans="2:8" s="47" customFormat="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G55" s="48"/>
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="2:8" s="47" customFormat="1">
       <c r="B56" s="22">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="32"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F56" s="32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" s="47" customFormat="1">
       <c r="B57" s="22">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="32"/>
+      <c r="E57" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F57" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" s="47" customFormat="1">
       <c r="B58" s="22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="32"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="F58" s="32" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" spans="2:8" s="47" customFormat="1">
       <c r="B59" s="22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="32"/>
+      <c r="D59" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="F59" s="32" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G59" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="2:8" s="47" customFormat="1">
       <c r="B60" s="22">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="32"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="F60" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" s="47" customFormat="1">
       <c r="B61" s="22">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="32"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="F61" s="32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="2:8" s="47" customFormat="1">
       <c r="B62" s="22">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C62" s="22"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="32"/>
+      <c r="D62" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F62" s="32" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="2:8" s="47" customFormat="1">
       <c r="B63" s="22">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C63" s="22"/>
-      <c r="D63" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E63" s="32"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F63" s="32" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" s="47" customFormat="1">
       <c r="B64" s="22">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="32"/>
+      <c r="E64" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F64" s="32" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="2:8" s="47" customFormat="1">
-      <c r="B65" s="22">
-        <v>58</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="2:8" s="47" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B66" s="23">
-        <v>59</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B67" s="40">
-        <v>60</v>
-      </c>
-      <c r="C67" s="13" t="s">
+    <row r="65" spans="2:8" s="47" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B65" s="23">
+        <v>61</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B66" s="40">
+        <v>62</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="70" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="71" spans="2:8" ht="21">
-      <c r="B71" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="72" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B72" s="6" t="s">
+      <c r="E66" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="58"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="70" spans="2:8" ht="21">
+      <c r="B70" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B71" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G71" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B73" s="16">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B72" s="16">
         <v>1</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="E72" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F72" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="59"/>
-      <c r="H73" s="12"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="60"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="9">
-        <v>2</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" s="60"/>
-      <c r="H74" s="11"/>
+      <c r="B74" s="22">
+        <v>3</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" s="61"/>
+      <c r="H74" s="41"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="25"/>
       <c r="D75" s="41" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G75" s="61"/>
       <c r="H75" s="41"/>
     </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="22">
-        <v>4</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G76" s="61"/>
-      <c r="H76" s="41"/>
-    </row>
-    <row r="77" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B77" s="23">
+    <row r="76" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B76" s="23">
         <v>5</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="62" t="s">
+      <c r="C76" s="27"/>
+      <c r="D76" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G77" s="63"/>
-      <c r="H77" s="62"/>
+      <c r="E76" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="63"/>
+      <c r="H76" s="62"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="9">
+        <v>6</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="9">
-        <v>6</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="11" t="s">
+      <c r="B78" s="22">
+        <v>7</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="11"/>
+      <c r="F78" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="61"/>
+      <c r="H78" s="41"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="41" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G79" s="61"/>
       <c r="H79" s="41"/>
     </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="22">
-        <v>8</v>
-      </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="32" t="s">
+    <row r="80" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B80" s="23">
+        <v>9</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="63"/>
+      <c r="H80" s="62"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="9">
+        <v>10</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="22">
         <v>11</v>
       </c>
-      <c r="F80" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="61"/>
-      <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B81" s="23">
-        <v>9</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="63"/>
-      <c r="H81" s="62"/>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="9">
-        <v>10</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="11"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="41"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="41" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
       <c r="G83" s="48"/>
       <c r="H83" s="41"/>
     </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="22">
-        <v>12</v>
-      </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="41"/>
-    </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B85" s="23">
+    <row r="84" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B84" s="23">
         <v>13</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="62"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="62"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="9">
+        <v>14</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="9">
-        <v>14</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="22">
+      <c r="B86" s="22">
         <v>15</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B88" s="23">
+      <c r="C86" s="25"/>
+      <c r="D86" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="41"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B87" s="23">
         <v>16</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="62"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="62"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="9">
+        <v>17</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="9">
-        <v>17</v>
-      </c>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="22">
         <v>18</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="22">
-        <v>18</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="41" t="s">
+      <c r="C89" s="25"/>
+      <c r="D89" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="41"/>
-    </row>
-    <row r="91" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B91" s="23">
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="41"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B90" s="23">
         <v>19</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="62" t="s">
+      <c r="C90" s="27"/>
+      <c r="D90" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="62"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="62"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="10">
+        <v>20</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="10">
+      <c r="B92" s="22">
+        <v>21</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="19"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="41"/>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" s="25"/>
       <c r="D93" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -3295,11 +3410,11 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94" s="41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -3308,245 +3423,245 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C95" s="25"/>
       <c r="D95" s="41" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
       <c r="G95" s="48"/>
       <c r="H95" s="41"/>
     </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="22">
-        <v>24</v>
-      </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="41"/>
-    </row>
-    <row r="97" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B97" s="23">
+    <row r="96" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B96" s="23">
         <v>25</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="62"/>
-    </row>
-    <row r="100" spans="2:8" ht="21">
-      <c r="B100" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-    </row>
-    <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="4" t="s">
+      <c r="C96" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="62"/>
+    </row>
+    <row r="99" spans="2:8" ht="21">
+      <c r="B99" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+    </row>
+    <row r="100" spans="2:8" ht="18.75">
+      <c r="B100" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" spans="2:8" ht="45">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="2:8" ht="60">
+      <c r="B101" s="32">
+        <v>1</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="32"/>
+    </row>
+    <row r="102" spans="2:8">
       <c r="B102" s="32">
-        <v>1</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="65" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="H102" s="32"/>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="32">
-        <v>2</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C103" s="33"/>
       <c r="D103" s="32" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H103" s="32"/>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="32">
-        <v>3</v>
-      </c>
-      <c r="C104" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="D104" s="32" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>31</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G104" s="34"/>
       <c r="H104" s="32"/>
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="32">
-        <v>4</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>145</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C105" s="32"/>
       <c r="D105" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G105" s="34"/>
       <c r="H105" s="32"/>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" s="32"/>
       <c r="D106" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G106" s="34"/>
       <c r="H106" s="32"/>
     </row>
     <row r="107" spans="2:8">
       <c r="B107" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F107" s="32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="32"/>
     </row>
     <row r="108" spans="2:8">
       <c r="B108" s="32">
-        <v>7</v>
-      </c>
-      <c r="C108" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="D108" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G108" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="33"/>
       <c r="H108" s="32"/>
     </row>
     <row r="109" spans="2:8">
       <c r="B109" s="32">
-        <v>8</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="32"/>
-      <c r="G109" s="33"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="32"/>
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="32">
-        <v>9</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C110" s="32"/>
       <c r="D110" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
-      <c r="G110" s="65"/>
+      <c r="G110" s="33"/>
       <c r="H110" s="32"/>
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="32"/>
@@ -3555,11 +3670,11 @@
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E112" s="32"/>
       <c r="F112" s="32"/>
@@ -3568,11 +3683,11 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" s="32"/>
       <c r="D113" s="32" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="32"/>
@@ -3581,24 +3696,26 @@
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
-      <c r="G114" s="33"/>
+      <c r="G114" s="65"/>
       <c r="H114" s="32"/>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="32">
-        <v>14</v>
-      </c>
-      <c r="C115" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>160</v>
+      </c>
       <c r="D115" s="32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
@@ -3607,13 +3724,11 @@
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="32">
-        <v>15</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C116" s="32"/>
       <c r="D116" s="32" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
@@ -3622,11 +3737,13 @@
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="32">
-        <v>16</v>
-      </c>
-      <c r="C117" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="D117" s="32" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="E117" s="32"/>
       <c r="F117" s="32"/>
@@ -3635,41 +3752,39 @@
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="32"/>
-      <c r="G118" s="65"/>
+      <c r="G118" s="33"/>
       <c r="H118" s="32"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="32">
-        <v>18</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C119" s="32"/>
       <c r="D119" s="32" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E119" s="32"/>
       <c r="F119" s="32"/>
-      <c r="G119" s="33"/>
+      <c r="G119" s="65"/>
       <c r="H119" s="32"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
@@ -3678,11 +3793,11 @@
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C121" s="32"/>
       <c r="D121" s="32" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E121" s="32"/>
       <c r="F121" s="32"/>
@@ -3691,11 +3806,13 @@
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="32">
-        <v>21</v>
-      </c>
-      <c r="C122" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="D122" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="32"/>
@@ -3704,13 +3821,11 @@
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="32">
-        <v>22</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>103</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C123" s="32"/>
       <c r="D123" s="32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="32"/>
@@ -3719,11 +3834,11 @@
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="32"/>
@@ -3732,39 +3847,39 @@
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="32">
-        <v>24</v>
-      </c>
-      <c r="C125" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="D125" s="32" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32"/>
-      <c r="G125" s="65"/>
+      <c r="G125" s="33"/>
       <c r="H125" s="32"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="32">
-        <v>25</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>169</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C126" s="32"/>
       <c r="D126" s="32" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="32"/>
-      <c r="G126" s="33"/>
+      <c r="G126" s="65"/>
       <c r="H126" s="32"/>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C127" s="32"/>
       <c r="D127" s="32" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
@@ -3773,29 +3888,16 @@
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" s="32"/>
       <c r="D128" s="32" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
       <c r="G128" s="65"/>
       <c r="H128" s="32"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="32">
-        <v>28</v>
-      </c>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
